--- a/物化实验/过氧化氢的催化分解反应速率常数的测定/新建 XLSX 工作表.xlsx
+++ b/物化实验/过氧化氢的催化分解反应速率常数的测定/新建 XLSX 工作表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>V无穷</t>
   </si>
@@ -36,36 +36,63 @@
     <t>(mol路K)</t>
   </si>
   <si>
-    <t>LN()</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>5ml的体积的V无穷</t>
   </si>
   <si>
+    <t>V1无穷</t>
+  </si>
+  <si>
     <t>10ml</t>
+  </si>
+  <si>
+    <t>V2无穷</t>
+  </si>
+  <si>
+    <t>Vt/cm^3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>ln2=</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>半衰期</t>
+  </si>
+  <si>
+    <t>5+0.1</t>
+  </si>
+  <si>
+    <t>10+0.1</t>
+  </si>
+  <si>
+    <t>10+0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,48 +550,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,102 +604,102 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,6 +761,1575 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.06425"/>
+          <c:y val="0.169444444444444"/>
+          <c:w val="0.901027777777778"/>
+          <c:h val="0.606342592592593"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"5ml+0.1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5ml+0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.462078377851433"/>
+                  <c:y val="-0.0483391175012395"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr sz="1600"/>
+                      <a:t>y = -0.0688x + 4.5849</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr sz="1600"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr sz="1600"/>
+                      <a:t>R</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1600" baseline="35000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1600"/>
+                      <a:t> = 0.9996</a:t>
+                    </a:r>
+                    <a:endParaRPr sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.51895848916903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.46291513840722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.40354347813613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.34042308481881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.27304847210414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.20080447332323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.12293201907401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0384794293807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.94623117675788</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.84460032911071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"10ml+0.1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10ml+0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0614154806005069"/>
+                  <c:y val="0.0911006445215667"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr sz="1600"/>
+                      <a:t>y = -0.0723x + 5.3066</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr sz="1600"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr sz="1600"/>
+                      <a:t>R</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1600" baseline="35000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1600"/>
+                      <a:t> = 0.9997</a:t>
+                    </a:r>
+                    <a:endParaRPr sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$15:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.23904495508297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.21216017009686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.18453257724142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.15611996083824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.12687640085029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.09675182638732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.06569149984433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.03363541832532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.00051761590797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96626534636032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"10ml+0.05"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10ml+0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.130142327939169"/>
+                  <c:y val="-0.0985374318294497"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr sz="1600"/>
+                      <a:t>y = -0.0359x + 5.2754</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr sz="1600"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr sz="1600"/>
+                      <a:t>R</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1600" baseline="35000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr sz="1600"/>
+                      <a:t> = 1</a:t>
+                    </a:r>
+                    <a:endParaRPr sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$15:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.23904495508297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.21216017009686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.18453257724142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.15611996083824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.12687640085029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.09675182638732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.06569149984433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.03363541832532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.00051761590797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.96626534636032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="84223880"/>
+        <c:axId val="152818613"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84223880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152818613"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="152818613"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84223880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>163195</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1" title="ln〔(V∞-Vt) / cm3〕"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14024610" y="1807210"/>
+        <a:ext cx="8865235" cy="6294755"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0543276028875493</cdr:x>
+      <cdr:y>0.0530294482680808</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.170424946044504</cdr:x>
+      <cdr:y>0.36951370867652</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="463550" y="298450"/>
+          <a:ext cx="990600" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.107910992036913</cdr:x>
+      <cdr:y>0.0597991650682613</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28540596859418</cdr:x>
+      <cdr:y>0.399977434277333</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="文本框 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="920750" y="336550"/>
+          <a:ext cx="1514475" cy="1914525"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0509786410657141</cdr:x>
+      <cdr:y>0.0293354394674489</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.18047183151001</cdr:x>
+      <cdr:y>0.339049983075708</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="文本框 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="434975" y="165100"/>
+          <a:ext cx="1104900" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1020,15 +2619,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="12.625"/>
+    <col min="7" max="8" width="12.625"/>
+    <col min="10" max="10" width="13.75"/>
+    <col min="16" max="17" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1051,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:17">
       <c r="B2">
         <v>1.5768</v>
       </c>
@@ -1082,13 +2683,18 @@
         <f>$J$5-L2</f>
         <v>188.49</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1">
+        <f>LN(M2)</f>
+        <v>4.51895848916903</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>LN(N2)</f>
+        <v>5.23904495508297</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -1101,8 +2707,16 @@
         <f t="shared" ref="N3:N11" si="1">$J$5-L3</f>
         <v>183.49</v>
       </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P11" si="2">LN(M3)</f>
+        <v>4.46291513840722</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>LN(N3)</f>
+        <v>5.21216017009686</v>
+      </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:17">
       <c r="B4">
         <v>101.26</v>
       </c>
@@ -1118,10 +2732,13 @@
         <v>193.494593793135</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4">
         <v>96.74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
       </c>
       <c r="L4">
         <v>15</v>
@@ -1134,8 +2751,16 @@
         <f t="shared" si="1"/>
         <v>178.49</v>
       </c>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>4.40354347813613</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>LN(N4)</f>
+        <v>5.18453257724142</v>
+      </c>
     </row>
-    <row r="5" spans="4:14">
+    <row r="5" spans="4:17">
       <c r="D5">
         <v>99035.5</v>
       </c>
@@ -1144,6 +2769,9 @@
       </c>
       <c r="J5">
         <v>193.49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
       </c>
       <c r="L5">
         <v>20</v>
@@ -1156,8 +2784,16 @@
         <f t="shared" si="1"/>
         <v>173.49</v>
       </c>
+      <c r="P5" s="1">
+        <f t="shared" si="2"/>
+        <v>4.34042308481881</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>LN(N5)</f>
+        <v>5.15611996083824</v>
+      </c>
     </row>
-    <row r="6" spans="12:14">
+    <row r="6" spans="12:17">
       <c r="L6">
         <v>25</v>
       </c>
@@ -1169,8 +2805,16 @@
         <f t="shared" si="1"/>
         <v>168.49</v>
       </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>4.27304847210414</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>LN(N6)</f>
+        <v>5.12687640085029</v>
+      </c>
     </row>
-    <row r="7" spans="12:21">
+    <row r="7" spans="12:17">
       <c r="L7">
         <v>30</v>
       </c>
@@ -1182,12 +2826,16 @@
         <f t="shared" si="1"/>
         <v>163.49</v>
       </c>
-      <c r="U7" t="e">
-        <f>LN(O6)</f>
-        <v>#NUM!</v>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.20080447332323</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>LN(N7)</f>
+        <v>5.09675182638732</v>
       </c>
     </row>
-    <row r="8" spans="12:14">
+    <row r="8" spans="12:17">
       <c r="L8">
         <v>35</v>
       </c>
@@ -1199,8 +2847,16 @@
         <f t="shared" si="1"/>
         <v>158.49</v>
       </c>
+      <c r="P8" s="1">
+        <f t="shared" si="2"/>
+        <v>4.12293201907401</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>LN(N8)</f>
+        <v>5.06569149984433</v>
+      </c>
     </row>
-    <row r="9" spans="12:14">
+    <row r="9" spans="12:17">
       <c r="L9">
         <v>40</v>
       </c>
@@ -1212,8 +2868,16 @@
         <f t="shared" si="1"/>
         <v>153.49</v>
       </c>
+      <c r="P9" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0384794293807</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>LN(N9)</f>
+        <v>5.03363541832532</v>
+      </c>
     </row>
-    <row r="10" spans="12:14">
+    <row r="10" spans="12:17">
       <c r="L10">
         <v>45</v>
       </c>
@@ -1225,8 +2889,16 @@
         <f t="shared" si="1"/>
         <v>148.49</v>
       </c>
+      <c r="P10" s="1">
+        <f t="shared" si="2"/>
+        <v>3.94623117675788</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>LN(N10)</f>
+        <v>5.00051761590797</v>
+      </c>
     </row>
-    <row r="11" spans="12:14">
+    <row r="11" spans="12:17">
       <c r="L11">
         <v>50</v>
       </c>
@@ -1237,12 +2909,228 @@
       <c r="N11">
         <f t="shared" si="1"/>
         <v>143.49</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="2"/>
+        <v>3.84460032911071</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>LN(N11)</f>
+        <v>4.96626534636032</v>
+      </c>
+    </row>
+    <row r="14" spans="12:15">
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="12:15">
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>0.93</v>
+      </c>
+      <c r="N15">
+        <v>0.9</v>
+      </c>
+      <c r="O15">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="12:15">
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>1.79</v>
+      </c>
+      <c r="N16">
+        <v>1.31</v>
+      </c>
+      <c r="O16">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="17" spans="12:15">
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>2.52</v>
+      </c>
+      <c r="N17">
+        <v>1.69</v>
+      </c>
+      <c r="O17">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="18" spans="12:15">
+      <c r="L18">
+        <v>20</v>
+      </c>
+      <c r="M18">
+        <v>3.61</v>
+      </c>
+      <c r="N18">
+        <v>2.09</v>
+      </c>
+      <c r="O18">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="19" spans="12:15">
+      <c r="L19">
+        <v>25</v>
+      </c>
+      <c r="M19">
+        <v>4.63</v>
+      </c>
+      <c r="N19">
+        <v>2.51</v>
+      </c>
+      <c r="O19">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="20" spans="12:15">
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>5.63</v>
+      </c>
+      <c r="N20">
+        <v>2.94</v>
+      </c>
+      <c r="O20">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="21" spans="12:15">
+      <c r="L21">
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>6.67</v>
+      </c>
+      <c r="N21">
+        <v>3.31</v>
+      </c>
+      <c r="O21">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="22" spans="12:15">
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>7.98</v>
+      </c>
+      <c r="N22">
+        <v>3.79</v>
+      </c>
+      <c r="O22">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="23" spans="12:15">
+      <c r="L23">
+        <v>45</v>
+      </c>
+      <c r="M23">
+        <v>9.28</v>
+      </c>
+      <c r="N23">
+        <v>4.22</v>
+      </c>
+      <c r="O23">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="24" spans="12:15">
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24">
+        <v>10.72</v>
+      </c>
+      <c r="N24">
+        <v>4.69</v>
+      </c>
+      <c r="O24">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="28" spans="7:8">
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <f>LN(2)</f>
+        <v>0.693147180559945</v>
+      </c>
+    </row>
+    <row r="30" spans="8:10">
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10">
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <v>-0.0688</v>
+      </c>
+      <c r="J31">
+        <f>$H$28/H31</f>
+        <v>-10.0748136709294</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10">
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32">
+        <v>-0.0723</v>
+      </c>
+      <c r="J32">
+        <f>$H$28/H32</f>
+        <v>-9.58709793305595</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10">
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>-0.0359</v>
+      </c>
+      <c r="J33">
+        <f>$H$28/H33</f>
+        <v>-19.3077209069623</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
